--- a/Candangolandia_MOR.xlsx
+++ b/Candangolandia_MOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="904" firstSheet="45" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="904" firstSheet="47" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="Idade x Sexo" sheetId="1" r:id="rId1"/>
@@ -68,18 +68,11 @@
     <sheet name="I15" sheetId="54" r:id="rId54"/>
     <sheet name="I16" sheetId="55" r:id="rId55"/>
     <sheet name="transporte" sheetId="73" r:id="rId56"/>
-    <sheet name="I09_1" sheetId="56" r:id="rId57"/>
-    <sheet name="I09_2" sheetId="57" r:id="rId58"/>
-    <sheet name="I09_3" sheetId="58" r:id="rId59"/>
-    <sheet name="I09_4" sheetId="59" r:id="rId60"/>
-    <sheet name="I09_5" sheetId="60" r:id="rId61"/>
-    <sheet name="I09_6" sheetId="61" r:id="rId62"/>
-    <sheet name="I09_7" sheetId="62" r:id="rId63"/>
-    <sheet name="I09_8" sheetId="63" r:id="rId64"/>
-    <sheet name="I10" sheetId="64" r:id="rId65"/>
-    <sheet name="I17" sheetId="65" r:id="rId66"/>
-    <sheet name="I18" sheetId="66" r:id="rId67"/>
-    <sheet name="Faixas salariais" sheetId="72" r:id="rId68"/>
+    <sheet name="I09_8" sheetId="63" r:id="rId57"/>
+    <sheet name="I10" sheetId="64" r:id="rId58"/>
+    <sheet name="I17" sheetId="65" r:id="rId59"/>
+    <sheet name="I18" sheetId="66" r:id="rId60"/>
+    <sheet name="Faixas salariais" sheetId="72" r:id="rId61"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'E04'!$A$2:$AMK$41</definedName>
@@ -94,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="288">
   <si>
     <t>Local</t>
   </si>
@@ -992,6 +985,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1169,6 +1163,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,19 +1197,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1576,40 +1570,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1022" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:1022" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:1022" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="45"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -2145,15 +2139,15 @@
       </c>
     </row>
     <row r="22" spans="1:1022" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2185,11 +2179,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -2282,12 +2276,12 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="AMF8"/>
       <c r="AMG8"/>
       <c r="AMH8"/>
@@ -2296,12 +2290,12 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
@@ -2597,16 +2591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:1025" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -2715,12 +2709,12 @@
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
@@ -2729,12 +2723,12 @@
       <c r="AMK10"/>
     </row>
     <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="AMF11"/>
       <c r="AMG11"/>
       <c r="AMH11"/>
@@ -3001,11 +2995,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -3115,12 +3109,12 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
@@ -3129,12 +3123,12 @@
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
@@ -3429,16 +3423,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:1023" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -3548,12 +3542,12 @@
       <c r="AMI9"/>
     </row>
     <row r="10" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="AMC10"/>
       <c r="AMD10"/>
       <c r="AME10"/>
@@ -3563,12 +3557,12 @@
       <c r="AMI10"/>
     </row>
     <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="AMC11"/>
       <c r="AMD11"/>
       <c r="AME11"/>
@@ -3867,11 +3861,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -3939,12 +3933,12 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -4200,11 +4194,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -4273,12 +4267,12 @@
       <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4306,11 +4300,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -4380,11 +4374,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -4639,11 +4633,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -4963,11 +4957,11 @@
       <c r="AMK14"/>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="22"/>
       <c r="ALW15"/>
       <c r="ALX15"/>
@@ -4986,12 +4980,12 @@
       <c r="AMK15"/>
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="ALW16"/>
       <c r="ALX16"/>
       <c r="ALY16"/>
@@ -5395,11 +5389,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -5797,11 +5791,11 @@
       <c r="AMK17"/>
     </row>
     <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="22"/>
       <c r="ALW18"/>
       <c r="ALX18"/>
@@ -5820,12 +5814,12 @@
       <c r="AMK18"/>
     </row>
     <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="ALW19"/>
       <c r="ALX19"/>
       <c r="ALY19"/>
@@ -6229,11 +6223,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -7134,11 +7128,11 @@
       <c r="AMK21"/>
     </row>
     <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="33"/>
       <c r="ALB22"/>
       <c r="ALC22"/>
@@ -7178,12 +7172,12 @@
       <c r="AMK22"/>
     </row>
     <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7211,11 +7205,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -7271,11 +7265,11 @@
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7302,11 +7296,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -7376,11 +7370,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -7635,11 +7629,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
@@ -7709,11 +7703,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -7970,11 +7964,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -8044,11 +8038,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -8303,11 +8297,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -8380,11 +8374,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -8641,11 +8635,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -8718,11 +8712,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -8979,11 +8973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -9092,11 +9086,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="27"/>
       <c r="AME8"/>
       <c r="AMF8"/>
@@ -9107,12 +9101,12 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="AME9"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
@@ -9429,11 +9423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -9494,11 +9488,11 @@
       <c r="AMK5"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -9755,11 +9749,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -9829,11 +9823,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -10090,11 +10084,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -10167,11 +10161,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -10428,11 +10422,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -10502,11 +10496,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -10762,11 +10756,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -10840,13 +10834,13 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -11066,11 +11060,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -11140,11 +11134,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -11401,11 +11395,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -11475,11 +11469,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -11736,11 +11730,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -11810,11 +11804,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -12071,11 +12065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -12145,11 +12139,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -12406,18 +12400,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
@@ -12489,11 +12483,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
@@ -12744,11 +12738,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -12818,11 +12812,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -13079,11 +13073,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -13153,11 +13147,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -13414,11 +13408,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AMF1"/>
       <c r="AMG1"/>
       <c r="AMH1"/>
@@ -13537,11 +13531,11 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="27"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
@@ -13551,12 +13545,12 @@
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
@@ -13852,15 +13846,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="AK1"/>
       <c r="AL1"/>
       <c r="AM1"/>
@@ -14851,21 +14845,21 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -15885,7 +15879,7 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
@@ -22011,20 +22005,20 @@
       <c r="AMJ8"/>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22062,41 +22056,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="49"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
@@ -22283,20 +22277,20 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -22329,11 +22323,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -22423,18 +22417,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22463,13 +22457,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="AMG1"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
@@ -22477,20 +22471,20 @@
       <c r="AMK1"/>
     </row>
     <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
@@ -22606,12 +22600,12 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
       <c r="AMI9"/>
@@ -22619,12 +22613,12 @@
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
       <c r="AMI10"/>
@@ -23966,11 +23960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AKQ1"/>
       <c r="AKR1"/>
       <c r="AKS1"/>
@@ -24798,20 +24792,20 @@
       <c r="AMK16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -24840,11 +24834,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AMA1"/>
       <c r="AMB1"/>
       <c r="AMC1"/>
@@ -25058,11 +25052,11 @@
       <c r="AMK11"/>
     </row>
     <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="27"/>
       <c r="AMA12"/>
       <c r="AMB12"/>
@@ -25077,12 +25071,12 @@
       <c r="AMK12"/>
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="AMA13"/>
       <c r="AMB13"/>
       <c r="AMC13"/>
@@ -25434,11 +25428,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="ALZ1"/>
       <c r="AMA1"/>
       <c r="AMB1"/>
@@ -25667,11 +25661,11 @@
       <c r="AMK11"/>
     </row>
     <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="27"/>
       <c r="ALZ12"/>
       <c r="AMA12"/>
@@ -25687,12 +25681,12 @@
       <c r="AMK12"/>
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="ALZ13"/>
       <c r="AMA13"/>
       <c r="AMB13"/>
@@ -26063,11 +26057,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AMC1"/>
       <c r="AMD1"/>
       <c r="AME1"/>
@@ -26263,11 +26257,11 @@
       <c r="AMK11"/>
     </row>
     <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="27"/>
       <c r="AMC12"/>
       <c r="AMD12"/>
@@ -26280,12 +26274,12 @@
       <c r="AMK12"/>
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="AMC13"/>
       <c r="AMD13"/>
       <c r="AME13"/>
@@ -26635,20 +26629,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="AMH2"/>
       <c r="AMI2"/>
       <c r="AMJ2"/>
@@ -26718,11 +26712,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
@@ -26966,7 +26960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -26977,20 +26971,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
     <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
@@ -27060,11 +27054,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
@@ -27312,20 +27306,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
     <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
@@ -27395,11 +27389,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
@@ -27647,11 +27641,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="AMG1"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
@@ -27659,9 +27653,9 @@
       <c r="AMK1"/>
     </row>
     <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
@@ -27754,11 +27748,11 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
       <c r="AMI9"/>
@@ -27950,11 +27944,11 @@
       <c r="AMK32"/>
     </row>
     <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="AMG33"/>
       <c r="AMH33"/>
       <c r="AMI33"/>
@@ -27962,9 +27956,9 @@
       <c r="AMK33"/>
     </row>
     <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="AMG34"/>
       <c r="AMH34"/>
       <c r="AMI34"/>
@@ -28057,11 +28051,11 @@
       <c r="C40" s="27"/>
     </row>
     <row r="41" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -28092,11 +28086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AKM1"/>
       <c r="AKN1"/>
       <c r="AKO1"/>
@@ -30968,20 +30962,20 @@
       <c r="AMK32"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31010,16 +31004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -31108,20 +31102,20 @@
       <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31149,11 +31143,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -31388,11 +31382,11 @@
       <c r="AMK12"/>
     </row>
     <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="AMA13"/>
       <c r="AMB13"/>
       <c r="AMC13"/>
@@ -31406,11 +31400,11 @@
       <c r="AMK13"/>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="AMA14"/>
       <c r="AMB14"/>
       <c r="AMC14"/>
@@ -31803,11 +31797,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -32098,11 +32092,11 @@
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="ALV14"/>
       <c r="ALW14"/>
       <c r="ALX14"/>
@@ -32121,11 +32115,11 @@
       <c r="AMK14"/>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="ALV15"/>
       <c r="ALW15"/>
       <c r="ALX15"/>
@@ -32642,16 +32636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:1025" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -32725,11 +32719,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="AMG8"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
@@ -32737,11 +32731,11 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
       <c r="AMI9"/>
@@ -33018,16 +33012,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -33109,18 +33103,18 @@
       <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -33153,23 +33147,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="AMH3"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
@@ -33245,11 +33239,11 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="AMH9"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
@@ -33494,16 +33488,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -33573,11 +33567,11 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
@@ -33835,39 +33829,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="41" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="44" t="s">
         <v>52</v>
       </c>
     </row>
@@ -33875,16 +33869,16 @@
       <c r="A4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="43">
         <v>2100</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="43">
         <v>4577</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="45">
         <v>31.4</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="45">
         <v>68.599999999999994</v>
       </c>
     </row>
@@ -33892,16 +33886,16 @@
       <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="43">
         <v>3845</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="43">
         <v>2832</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="45">
         <v>57.6</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="45">
         <v>42.4</v>
       </c>
     </row>
@@ -33912,13 +33906,13 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="43">
         <v>6458</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="45">
         <v>96.720083870001503</v>
       </c>
     </row>
@@ -33929,13 +33923,13 @@
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="43">
         <v>6639</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="45">
         <v>99.430882132694322</v>
       </c>
     </row>
@@ -33946,13 +33940,13 @@
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="43">
         <v>6501</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="45">
         <v>97.364085667215818</v>
       </c>
     </row>
@@ -33963,13 +33957,13 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="43">
         <v>6566</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="45">
         <v>98.337576756028156</v>
       </c>
     </row>
@@ -33977,59 +33971,59 @@
       <c r="A10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="43">
         <v>847</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="43">
         <v>5830</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="45">
         <v>12.685337726523889</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="45">
         <v>87.314662273476117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34038,27 +34032,36 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK7"/>
+  <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="22.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+      <c r="AMK1"/>
+    </row>
+    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -34069,57 +34072,511 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="14">
         <v>6677</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="25">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>52</v>
+      <c r="AMC3"/>
+      <c r="AMD3"/>
+      <c r="AME3"/>
+      <c r="AMF3"/>
+      <c r="AMG3"/>
+      <c r="AMH3"/>
+      <c r="AMI3"/>
+      <c r="AMJ3"/>
+      <c r="AMK3"/>
+    </row>
+    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="9">
-        <v>4577</v>
+        <v>3661</v>
       </c>
       <c r="C4" s="21">
-        <f>100*B4/$B$3</f>
-        <v>68.548749438370521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
+        <v>54.830013479107386</v>
+      </c>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
+      <c r="AMH4"/>
+      <c r="AMI4"/>
+      <c r="AMJ4"/>
+      <c r="AMK4"/>
+    </row>
+    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="9">
-        <v>2100</v>
+        <v>1855</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" ref="C5" si="0">100*B5/$B$3</f>
-        <v>31.451250561629475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+        <v>27.781937996106034</v>
+      </c>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
+      <c r="AMF5"/>
+      <c r="AMG5"/>
+      <c r="AMH5"/>
+      <c r="AMI5"/>
+      <c r="AMJ5"/>
+      <c r="AMK5"/>
+    </row>
+    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="10">
+        <v>780</v>
+      </c>
+      <c r="C6" s="21">
+        <v>11.68189306574809</v>
+      </c>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
+      <c r="AMF6"/>
+      <c r="AMG6"/>
+      <c r="AMH6"/>
+      <c r="AMI6"/>
+      <c r="AMJ6"/>
+      <c r="AMK6"/>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
+      <c r="AMF7"/>
+      <c r="AMG7"/>
+      <c r="AMH7"/>
+      <c r="AMI7"/>
+      <c r="AMJ7"/>
+      <c r="AMK7"/>
+    </row>
+    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AMC8"/>
+      <c r="AMD8"/>
+      <c r="AME8"/>
+      <c r="AMF8"/>
+      <c r="AMG8"/>
+      <c r="AMH8"/>
+      <c r="AMI8"/>
+      <c r="AMJ8"/>
+      <c r="AMK8"/>
+    </row>
+    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
+      <c r="AMG9"/>
+      <c r="AMH9"/>
+      <c r="AMI9"/>
+      <c r="AMJ9"/>
+      <c r="AMK9"/>
+    </row>
+    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="AMC11"/>
+      <c r="AMD11"/>
+      <c r="AME11"/>
+      <c r="AMF11"/>
+      <c r="AMG11"/>
+      <c r="AMH11"/>
+      <c r="AMI11"/>
+      <c r="AMJ11"/>
+      <c r="AMK11"/>
+    </row>
+    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="AMC12"/>
+      <c r="AMD12"/>
+      <c r="AME12"/>
+      <c r="AMF12"/>
+      <c r="AMG12"/>
+      <c r="AMH12"/>
+      <c r="AMI12"/>
+      <c r="AMJ12"/>
+      <c r="AMK12"/>
+    </row>
+    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="AMC13"/>
+      <c r="AMD13"/>
+      <c r="AME13"/>
+      <c r="AMF13"/>
+      <c r="AMG13"/>
+      <c r="AMH13"/>
+      <c r="AMI13"/>
+      <c r="AMJ13"/>
+      <c r="AMK13"/>
+    </row>
+    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="AMC14"/>
+      <c r="AMD14"/>
+      <c r="AME14"/>
+      <c r="AMF14"/>
+      <c r="AMG14"/>
+      <c r="AMH14"/>
+      <c r="AMI14"/>
+      <c r="AMJ14"/>
+      <c r="AMK14"/>
+    </row>
+    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="AMC15"/>
+      <c r="AMD15"/>
+      <c r="AME15"/>
+      <c r="AMF15"/>
+      <c r="AMG15"/>
+      <c r="AMH15"/>
+      <c r="AMI15"/>
+      <c r="AMJ15"/>
+      <c r="AMK15"/>
+    </row>
+    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="AMC16"/>
+      <c r="AMD16"/>
+      <c r="AME16"/>
+      <c r="AMF16"/>
+      <c r="AMG16"/>
+      <c r="AMH16"/>
+      <c r="AMI16"/>
+      <c r="AMJ16"/>
+      <c r="AMK16"/>
+    </row>
+    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="AMC17"/>
+      <c r="AMD17"/>
+      <c r="AME17"/>
+      <c r="AMF17"/>
+      <c r="AMG17"/>
+      <c r="AMH17"/>
+      <c r="AMI17"/>
+      <c r="AMJ17"/>
+      <c r="AMK17"/>
+    </row>
+    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="AMC18"/>
+      <c r="AMD18"/>
+      <c r="AME18"/>
+      <c r="AMF18"/>
+      <c r="AMG18"/>
+      <c r="AMH18"/>
+      <c r="AMI18"/>
+      <c r="AMJ18"/>
+      <c r="AMK18"/>
+    </row>
+    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="AMC19"/>
+      <c r="AMD19"/>
+      <c r="AME19"/>
+      <c r="AMF19"/>
+      <c r="AMG19"/>
+      <c r="AMH19"/>
+      <c r="AMI19"/>
+      <c r="AMJ19"/>
+      <c r="AMK19"/>
+    </row>
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="AMC20"/>
+      <c r="AMD20"/>
+      <c r="AME20"/>
+      <c r="AMF20"/>
+      <c r="AMG20"/>
+      <c r="AMH20"/>
+      <c r="AMI20"/>
+      <c r="AMJ20"/>
+      <c r="AMK20"/>
+    </row>
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="AMC21"/>
+      <c r="AMD21"/>
+      <c r="AME21"/>
+      <c r="AMF21"/>
+      <c r="AMG21"/>
+      <c r="AMH21"/>
+      <c r="AMI21"/>
+      <c r="AMJ21"/>
+      <c r="AMK21"/>
+    </row>
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="AMC22"/>
+      <c r="AMD22"/>
+      <c r="AME22"/>
+      <c r="AMF22"/>
+      <c r="AMG22"/>
+      <c r="AMH22"/>
+      <c r="AMI22"/>
+      <c r="AMJ22"/>
+      <c r="AMK22"/>
+    </row>
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="AMC23"/>
+      <c r="AMD23"/>
+      <c r="AME23"/>
+      <c r="AMF23"/>
+      <c r="AMG23"/>
+      <c r="AMH23"/>
+      <c r="AMI23"/>
+      <c r="AMJ23"/>
+      <c r="AMK23"/>
+    </row>
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
+      <c r="AMH24"/>
+      <c r="AMI24"/>
+      <c r="AMJ24"/>
+      <c r="AMK24"/>
+    </row>
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="AMC25"/>
+      <c r="AMD25"/>
+      <c r="AME25"/>
+      <c r="AMF25"/>
+      <c r="AMG25"/>
+      <c r="AMH25"/>
+      <c r="AMI25"/>
+      <c r="AMJ25"/>
+      <c r="AMK25"/>
+    </row>
+    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="AMC26"/>
+      <c r="AMD26"/>
+      <c r="AME26"/>
+      <c r="AMF26"/>
+      <c r="AMG26"/>
+      <c r="AMH26"/>
+      <c r="AMI26"/>
+      <c r="AMJ26"/>
+      <c r="AMK26"/>
+    </row>
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="AMC27"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
+      <c r="AMF27"/>
+      <c r="AMG27"/>
+      <c r="AMH27"/>
+      <c r="AMI27"/>
+      <c r="AMJ27"/>
+      <c r="AMK27"/>
+    </row>
+    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="AMC28"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
+      <c r="AMH28"/>
+      <c r="AMI28"/>
+      <c r="AMJ28"/>
+      <c r="AMK28"/>
+    </row>
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="AMC29"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
+      <c r="AMH29"/>
+      <c r="AMI29"/>
+      <c r="AMJ29"/>
+      <c r="AMK29"/>
+    </row>
+    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="AMC30"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
+      <c r="AMH30"/>
+      <c r="AMI30"/>
+      <c r="AMJ30"/>
+      <c r="AMK30"/>
+    </row>
+    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="AMC31"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
+      <c r="AMH31"/>
+      <c r="AMI31"/>
+      <c r="AMJ31"/>
+      <c r="AMK31"/>
+    </row>
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="AMC32"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
+      <c r="AMH32"/>
+      <c r="AMI32"/>
+      <c r="AMJ32"/>
+      <c r="AMK32"/>
+    </row>
+    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="AMC33"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
+      <c r="AMH33"/>
+      <c r="AMI33"/>
+      <c r="AMJ33"/>
+      <c r="AMK33"/>
+    </row>
+    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="AMC34"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
+      <c r="AMH34"/>
+      <c r="AMI34"/>
+      <c r="AMJ34"/>
+      <c r="AMK34"/>
+    </row>
+    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="AMC35"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
+      <c r="AMH35"/>
+      <c r="AMI35"/>
+      <c r="AMJ35"/>
+      <c r="AMK35"/>
+    </row>
+    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+      <c r="AMK36"/>
+    </row>
+    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+      <c r="AMK37"/>
+    </row>
+    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="AMC38"/>
+      <c r="AMD38"/>
+      <c r="AME38"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+      <c r="AMH38"/>
+      <c r="AMI38"/>
+      <c r="AMJ38"/>
+      <c r="AMK38"/>
+    </row>
+    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -34131,118 +34588,297 @@
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="22.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="22.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
+      <c r="A1" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
-        <v>6677</v>
-      </c>
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6700</v>
+      </c>
+      <c r="C3" s="25">
+        <v>100</v>
+      </c>
+      <c r="ALZ3"/>
+      <c r="AMA3"/>
+      <c r="AMB3"/>
+      <c r="AMC3"/>
+      <c r="AMD3"/>
+      <c r="AME3"/>
+      <c r="AMF3"/>
+      <c r="AMG3"/>
       <c r="AMH3"/>
       <c r="AMI3"/>
       <c r="AMJ3"/>
       <c r="AMK3"/>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="B4" s="9">
-        <v>3845</v>
-      </c>
+        <v>2812</v>
+      </c>
+      <c r="C4" s="21">
+        <v>41.970149253731343</v>
+      </c>
+      <c r="ALZ4"/>
+      <c r="AMA4"/>
+      <c r="AMB4"/>
+      <c r="AMC4"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
+      <c r="AMF4"/>
+      <c r="AMG4"/>
       <c r="AMH4"/>
       <c r="AMI4"/>
       <c r="AMJ4"/>
       <c r="AMK4"/>
     </row>
     <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="B5" s="9">
-        <v>2832</v>
-      </c>
+        <v>1515</v>
+      </c>
+      <c r="C5" s="21">
+        <v>22.611940298507463</v>
+      </c>
+      <c r="ALZ5"/>
+      <c r="AMA5"/>
+      <c r="AMB5"/>
+      <c r="AMC5"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
+      <c r="AMF5"/>
+      <c r="AMG5"/>
       <c r="AMH5"/>
       <c r="AMI5"/>
       <c r="AMJ5"/>
       <c r="AMK5"/>
     </row>
     <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1404</v>
+      </c>
+      <c r="C6" s="21">
+        <v>20.955223880597014</v>
+      </c>
+      <c r="ALZ6"/>
+      <c r="AMA6"/>
+      <c r="AMB6"/>
+      <c r="AMC6"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
+      <c r="AMF6"/>
+      <c r="AMG6"/>
       <c r="AMH6"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="10">
+        <v>737</v>
+      </c>
+      <c r="C7" s="21">
+        <v>11</v>
+      </c>
+      <c r="ALZ7"/>
+      <c r="AMA7"/>
+      <c r="AMB7"/>
+      <c r="AMC7"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
+      <c r="AMF7"/>
+      <c r="AMG7"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="ALZ8"/>
+      <c r="AMA8"/>
+      <c r="AMB8"/>
+      <c r="AMC8"/>
+      <c r="AMD8"/>
+      <c r="AME8"/>
+      <c r="AMF8"/>
+      <c r="AMG8"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="ALZ9"/>
+      <c r="AMA9"/>
+      <c r="AMB9"/>
+      <c r="AMC9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
+      <c r="AMF9"/>
+      <c r="AMG9"/>
       <c r="AMH9"/>
       <c r="AMI9"/>
       <c r="AMJ9"/>
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="ALZ10"/>
+      <c r="AMA10"/>
+      <c r="AMB10"/>
+      <c r="AMC10"/>
+      <c r="AMD10"/>
+      <c r="AME10"/>
+      <c r="AMF10"/>
+      <c r="AMG10"/>
       <c r="AMH10"/>
       <c r="AMI10"/>
       <c r="AMJ10"/>
       <c r="AMK10"/>
     </row>
     <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="ALZ11"/>
+      <c r="AMA11"/>
+      <c r="AMB11"/>
+      <c r="AMC11"/>
+      <c r="AMD11"/>
+      <c r="AME11"/>
+      <c r="AMF11"/>
+      <c r="AMG11"/>
       <c r="AMH11"/>
       <c r="AMI11"/>
       <c r="AMJ11"/>
       <c r="AMK11"/>
     </row>
     <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="ALZ12"/>
+      <c r="AMA12"/>
+      <c r="AMB12"/>
+      <c r="AMC12"/>
+      <c r="AMD12"/>
+      <c r="AME12"/>
+      <c r="AMF12"/>
+      <c r="AMG12"/>
       <c r="AMH12"/>
       <c r="AMI12"/>
       <c r="AMJ12"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
     <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
+      <c r="A14" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="ALZ15"/>
+      <c r="AMA15"/>
+      <c r="AMB15"/>
+      <c r="AMC15"/>
+      <c r="AMD15"/>
+      <c r="AME15"/>
+      <c r="AMF15"/>
+      <c r="AMG15"/>
       <c r="AMH15"/>
       <c r="AMI15"/>
       <c r="AMJ15"/>
@@ -34250,6 +34886,14 @@
     </row>
     <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
+      <c r="ALZ16"/>
+      <c r="AMA16"/>
+      <c r="AMB16"/>
+      <c r="AMC16"/>
+      <c r="AMD16"/>
+      <c r="AME16"/>
+      <c r="AMF16"/>
+      <c r="AMG16"/>
       <c r="AMH16"/>
       <c r="AMI16"/>
       <c r="AMJ16"/>
@@ -34257,6 +34901,14 @@
     </row>
     <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
+      <c r="ALZ17"/>
+      <c r="AMA17"/>
+      <c r="AMB17"/>
+      <c r="AMC17"/>
+      <c r="AMD17"/>
+      <c r="AME17"/>
+      <c r="AMF17"/>
+      <c r="AMG17"/>
       <c r="AMH17"/>
       <c r="AMI17"/>
       <c r="AMJ17"/>
@@ -34264,6 +34916,14 @@
     </row>
     <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
+      <c r="ALZ18"/>
+      <c r="AMA18"/>
+      <c r="AMB18"/>
+      <c r="AMC18"/>
+      <c r="AMD18"/>
+      <c r="AME18"/>
+      <c r="AMF18"/>
+      <c r="AMG18"/>
       <c r="AMH18"/>
       <c r="AMI18"/>
       <c r="AMJ18"/>
@@ -34271,6 +34931,14 @@
     </row>
     <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
+      <c r="ALZ19"/>
+      <c r="AMA19"/>
+      <c r="AMB19"/>
+      <c r="AMC19"/>
+      <c r="AMD19"/>
+      <c r="AME19"/>
+      <c r="AMF19"/>
+      <c r="AMG19"/>
       <c r="AMH19"/>
       <c r="AMI19"/>
       <c r="AMJ19"/>
@@ -34278,6 +34946,14 @@
     </row>
     <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
+      <c r="ALZ20"/>
+      <c r="AMA20"/>
+      <c r="AMB20"/>
+      <c r="AMC20"/>
+      <c r="AMD20"/>
+      <c r="AME20"/>
+      <c r="AMF20"/>
+      <c r="AMG20"/>
       <c r="AMH20"/>
       <c r="AMI20"/>
       <c r="AMJ20"/>
@@ -34285,6 +34961,14 @@
     </row>
     <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
+      <c r="ALZ21"/>
+      <c r="AMA21"/>
+      <c r="AMB21"/>
+      <c r="AMC21"/>
+      <c r="AMD21"/>
+      <c r="AME21"/>
+      <c r="AMF21"/>
+      <c r="AMG21"/>
       <c r="AMH21"/>
       <c r="AMI21"/>
       <c r="AMJ21"/>
@@ -34292,6 +34976,14 @@
     </row>
     <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
+      <c r="ALZ22"/>
+      <c r="AMA22"/>
+      <c r="AMB22"/>
+      <c r="AMC22"/>
+      <c r="AMD22"/>
+      <c r="AME22"/>
+      <c r="AMF22"/>
+      <c r="AMG22"/>
       <c r="AMH22"/>
       <c r="AMI22"/>
       <c r="AMJ22"/>
@@ -34299,6 +34991,14 @@
     </row>
     <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
+      <c r="ALZ23"/>
+      <c r="AMA23"/>
+      <c r="AMB23"/>
+      <c r="AMC23"/>
+      <c r="AMD23"/>
+      <c r="AME23"/>
+      <c r="AMF23"/>
+      <c r="AMG23"/>
       <c r="AMH23"/>
       <c r="AMI23"/>
       <c r="AMJ23"/>
@@ -34306,6 +35006,14 @@
     </row>
     <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
+      <c r="ALZ24"/>
+      <c r="AMA24"/>
+      <c r="AMB24"/>
+      <c r="AMC24"/>
+      <c r="AMD24"/>
+      <c r="AME24"/>
+      <c r="AMF24"/>
+      <c r="AMG24"/>
       <c r="AMH24"/>
       <c r="AMI24"/>
       <c r="AMJ24"/>
@@ -34313,6 +35021,14 @@
     </row>
     <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
+      <c r="ALZ25"/>
+      <c r="AMA25"/>
+      <c r="AMB25"/>
+      <c r="AMC25"/>
+      <c r="AMD25"/>
+      <c r="AME25"/>
+      <c r="AMF25"/>
+      <c r="AMG25"/>
       <c r="AMH25"/>
       <c r="AMI25"/>
       <c r="AMJ25"/>
@@ -34320,6 +35036,14 @@
     </row>
     <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
+      <c r="ALZ26"/>
+      <c r="AMA26"/>
+      <c r="AMB26"/>
+      <c r="AMC26"/>
+      <c r="AMD26"/>
+      <c r="AME26"/>
+      <c r="AMF26"/>
+      <c r="AMG26"/>
       <c r="AMH26"/>
       <c r="AMI26"/>
       <c r="AMJ26"/>
@@ -34327,6 +35051,14 @@
     </row>
     <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
+      <c r="ALZ27"/>
+      <c r="AMA27"/>
+      <c r="AMB27"/>
+      <c r="AMC27"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
+      <c r="AMF27"/>
+      <c r="AMG27"/>
       <c r="AMH27"/>
       <c r="AMI27"/>
       <c r="AMJ27"/>
@@ -34334,6 +35066,14 @@
     </row>
     <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
+      <c r="ALZ28"/>
+      <c r="AMA28"/>
+      <c r="AMB28"/>
+      <c r="AMC28"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
       <c r="AMH28"/>
       <c r="AMI28"/>
       <c r="AMJ28"/>
@@ -34341,6 +35081,14 @@
     </row>
     <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
+      <c r="ALZ29"/>
+      <c r="AMA29"/>
+      <c r="AMB29"/>
+      <c r="AMC29"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
       <c r="AMH29"/>
       <c r="AMI29"/>
       <c r="AMJ29"/>
@@ -34348,6 +35096,14 @@
     </row>
     <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
+      <c r="ALZ30"/>
+      <c r="AMA30"/>
+      <c r="AMB30"/>
+      <c r="AMC30"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
       <c r="AMH30"/>
       <c r="AMI30"/>
       <c r="AMJ30"/>
@@ -34355,6 +35111,14 @@
     </row>
     <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="ALZ31"/>
+      <c r="AMA31"/>
+      <c r="AMB31"/>
+      <c r="AMC31"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
       <c r="AMH31"/>
       <c r="AMI31"/>
       <c r="AMJ31"/>
@@ -34362,6 +35126,14 @@
     </row>
     <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
+      <c r="ALZ32"/>
+      <c r="AMA32"/>
+      <c r="AMB32"/>
+      <c r="AMC32"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
       <c r="AMH32"/>
       <c r="AMI32"/>
       <c r="AMJ32"/>
@@ -34369,6 +35141,14 @@
     </row>
     <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
+      <c r="ALZ33"/>
+      <c r="AMA33"/>
+      <c r="AMB33"/>
+      <c r="AMC33"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
       <c r="AMH33"/>
       <c r="AMI33"/>
       <c r="AMJ33"/>
@@ -34376,6 +35156,14 @@
     </row>
     <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
+      <c r="ALZ34"/>
+      <c r="AMA34"/>
+      <c r="AMB34"/>
+      <c r="AMC34"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
       <c r="AMH34"/>
       <c r="AMI34"/>
       <c r="AMJ34"/>
@@ -34383,6 +35171,14 @@
     </row>
     <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
+      <c r="ALZ35"/>
+      <c r="AMA35"/>
+      <c r="AMB35"/>
+      <c r="AMC35"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
       <c r="AMH35"/>
       <c r="AMI35"/>
       <c r="AMJ35"/>
@@ -34390,6 +35186,14 @@
     </row>
     <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
+      <c r="ALZ36"/>
+      <c r="AMA36"/>
+      <c r="AMB36"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
       <c r="AMH36"/>
       <c r="AMI36"/>
       <c r="AMJ36"/>
@@ -34397,6 +35201,14 @@
     </row>
     <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
+      <c r="ALZ37"/>
+      <c r="AMA37"/>
+      <c r="AMB37"/>
+      <c r="AMC37"/>
+      <c r="AMD37"/>
+      <c r="AME37"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
       <c r="AMH37"/>
       <c r="AMI37"/>
       <c r="AMJ37"/>
@@ -34404,19 +35216,39 @@
     </row>
     <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
+      <c r="ALZ38"/>
+      <c r="AMA38"/>
+      <c r="AMB38"/>
+      <c r="AMC38"/>
+      <c r="AMD38"/>
+      <c r="AME38"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
       <c r="AMH38"/>
       <c r="AMI38"/>
       <c r="AMJ38"/>
       <c r="AMK38"/>
     </row>
     <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
+      <c r="ALZ39"/>
+      <c r="AMA39"/>
+      <c r="AMB39"/>
+      <c r="AMC39"/>
+      <c r="AMD39"/>
+      <c r="AME39"/>
+      <c r="AMF39"/>
+      <c r="AMG39"/>
       <c r="AMH39"/>
       <c r="AMI39"/>
       <c r="AMJ39"/>
       <c r="AMK39"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -34427,7 +35259,7 @@
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34437,17 +35269,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
+      <c r="A1" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
       <c r="AMK1"/>
     </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+    </row>
     <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
-        <v>6677</v>
+      <c r="A3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="AMH3"/>
       <c r="AMI3"/>
@@ -34455,9 +35300,14 @@
       <c r="AMK3"/>
     </row>
     <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9">
-        <v>6458</v>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3911</v>
+      </c>
+      <c r="C4" s="25">
+        <v>100</v>
       </c>
       <c r="AMH4"/>
       <c r="AMI4"/>
@@ -34465,9 +35315,14 @@
       <c r="AMK4"/>
     </row>
     <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10">
-        <v>219</v>
+      <c r="A5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3583</v>
+      </c>
+      <c r="C5" s="21">
+        <v>91.613398107900792</v>
       </c>
       <c r="AMH5"/>
       <c r="AMI5"/>
@@ -34475,21 +35330,35 @@
       <c r="AMK5"/>
     </row>
     <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="10">
+        <v>328</v>
+      </c>
+      <c r="C6" s="21">
+        <v>8.3866018920992076</v>
+      </c>
       <c r="AMH6"/>
       <c r="AMI6"/>
       <c r="AMJ6"/>
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="AMH8"/>
       <c r="AMI8"/>
       <c r="AMJ8"/>
@@ -34713,6 +35582,10 @@
       <c r="AMK39"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -34733,11 +35606,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -34814,11 +35687,11 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="AMH7"/>
@@ -35065,2751 +35938,6 @@
   <dimension ref="A1:AMK39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
-        <v>6677</v>
-      </c>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9">
-        <v>6639</v>
-      </c>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="AMH39"/>
-      <c r="AMI39"/>
-      <c r="AMJ39"/>
-      <c r="AMK39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
-        <v>6677</v>
-      </c>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9">
-        <v>6501</v>
-      </c>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10">
-        <v>176</v>
-      </c>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="AMH39"/>
-      <c r="AMI39"/>
-      <c r="AMJ39"/>
-      <c r="AMK39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
-        <v>6677</v>
-      </c>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9">
-        <v>6566</v>
-      </c>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="AMH39"/>
-      <c r="AMI39"/>
-      <c r="AMJ39"/>
-      <c r="AMK39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9">
-        <v>6677</v>
-      </c>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9">
-        <v>5830</v>
-      </c>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10">
-        <v>847</v>
-      </c>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="AMH39"/>
-      <c r="AMI39"/>
-      <c r="AMJ39"/>
-      <c r="AMK39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="3" width="32.140625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="AMC1"/>
-      <c r="AMD1"/>
-      <c r="AME1"/>
-      <c r="AMF1"/>
-      <c r="AMG1"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14">
-        <v>6677</v>
-      </c>
-      <c r="C3" s="25">
-        <v>100</v>
-      </c>
-      <c r="AMC3"/>
-      <c r="AMD3"/>
-      <c r="AME3"/>
-      <c r="AMF3"/>
-      <c r="AMG3"/>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3661</v>
-      </c>
-      <c r="C4" s="21">
-        <v>54.830013479107386</v>
-      </c>
-      <c r="AMC4"/>
-      <c r="AMD4"/>
-      <c r="AME4"/>
-      <c r="AMF4"/>
-      <c r="AMG4"/>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1855</v>
-      </c>
-      <c r="C5" s="21">
-        <v>27.781937996106034</v>
-      </c>
-      <c r="AMC5"/>
-      <c r="AMD5"/>
-      <c r="AME5"/>
-      <c r="AMF5"/>
-      <c r="AMG5"/>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="10">
-        <v>780</v>
-      </c>
-      <c r="C6" s="21">
-        <v>11.68189306574809</v>
-      </c>
-      <c r="AMC6"/>
-      <c r="AMD6"/>
-      <c r="AME6"/>
-      <c r="AMF6"/>
-      <c r="AMG6"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMC7"/>
-      <c r="AMD7"/>
-      <c r="AME7"/>
-      <c r="AMF7"/>
-      <c r="AMG7"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMC8"/>
-      <c r="AMD8"/>
-      <c r="AME8"/>
-      <c r="AMF8"/>
-      <c r="AMG8"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMC9"/>
-      <c r="AMD9"/>
-      <c r="AME9"/>
-      <c r="AMF9"/>
-      <c r="AMG9"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="AMC11"/>
-      <c r="AMD11"/>
-      <c r="AME11"/>
-      <c r="AMF11"/>
-      <c r="AMG11"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="AMC12"/>
-      <c r="AMD12"/>
-      <c r="AME12"/>
-      <c r="AMF12"/>
-      <c r="AMG12"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="AMC13"/>
-      <c r="AMD13"/>
-      <c r="AME13"/>
-      <c r="AMF13"/>
-      <c r="AMG13"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMC14"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="AMC15"/>
-      <c r="AMD15"/>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="AMC16"/>
-      <c r="AMD16"/>
-      <c r="AME16"/>
-      <c r="AMF16"/>
-      <c r="AMG16"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="AMC17"/>
-      <c r="AMD17"/>
-      <c r="AME17"/>
-      <c r="AMF17"/>
-      <c r="AMG17"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="AMC18"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="AMC19"/>
-      <c r="AMD19"/>
-      <c r="AME19"/>
-      <c r="AMF19"/>
-      <c r="AMG19"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="AMC20"/>
-      <c r="AMD20"/>
-      <c r="AME20"/>
-      <c r="AMF20"/>
-      <c r="AMG20"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="AMC21"/>
-      <c r="AMD21"/>
-      <c r="AME21"/>
-      <c r="AMF21"/>
-      <c r="AMG21"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="AMC22"/>
-      <c r="AMD22"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="AMC23"/>
-      <c r="AMD23"/>
-      <c r="AME23"/>
-      <c r="AMF23"/>
-      <c r="AMG23"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="AMC24"/>
-      <c r="AMD24"/>
-      <c r="AME24"/>
-      <c r="AMF24"/>
-      <c r="AMG24"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="AMC25"/>
-      <c r="AMD25"/>
-      <c r="AME25"/>
-      <c r="AMF25"/>
-      <c r="AMG25"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="AMC26"/>
-      <c r="AMD26"/>
-      <c r="AME26"/>
-      <c r="AMF26"/>
-      <c r="AMG26"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="AMC27"/>
-      <c r="AMD27"/>
-      <c r="AME27"/>
-      <c r="AMF27"/>
-      <c r="AMG27"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="AMC28"/>
-      <c r="AMD28"/>
-      <c r="AME28"/>
-      <c r="AMF28"/>
-      <c r="AMG28"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="AMC29"/>
-      <c r="AMD29"/>
-      <c r="AME29"/>
-      <c r="AMF29"/>
-      <c r="AMG29"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="AMC30"/>
-      <c r="AMD30"/>
-      <c r="AME30"/>
-      <c r="AMF30"/>
-      <c r="AMG30"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="AMC31"/>
-      <c r="AMD31"/>
-      <c r="AME31"/>
-      <c r="AMF31"/>
-      <c r="AMG31"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="AMC32"/>
-      <c r="AMD32"/>
-      <c r="AME32"/>
-      <c r="AMF32"/>
-      <c r="AMG32"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="AMC33"/>
-      <c r="AMD33"/>
-      <c r="AME33"/>
-      <c r="AMF33"/>
-      <c r="AMG33"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="AMC34"/>
-      <c r="AMD34"/>
-      <c r="AME34"/>
-      <c r="AMF34"/>
-      <c r="AMG34"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="AMC35"/>
-      <c r="AMD35"/>
-      <c r="AME35"/>
-      <c r="AMF35"/>
-      <c r="AMG35"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="AMC36"/>
-      <c r="AMD36"/>
-      <c r="AME36"/>
-      <c r="AMF36"/>
-      <c r="AMG36"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="AMC37"/>
-      <c r="AMD37"/>
-      <c r="AME37"/>
-      <c r="AMF37"/>
-      <c r="AMG37"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="AMC38"/>
-      <c r="AMD38"/>
-      <c r="AME38"/>
-      <c r="AMF38"/>
-      <c r="AMG38"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="3" width="25.5703125" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="ALZ1"/>
-      <c r="AMA1"/>
-      <c r="AMB1"/>
-      <c r="AMC1"/>
-      <c r="AMD1"/>
-      <c r="AME1"/>
-      <c r="AMF1"/>
-      <c r="AMG1"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14">
-        <v>6700</v>
-      </c>
-      <c r="C3" s="25">
-        <v>100</v>
-      </c>
-      <c r="ALZ3"/>
-      <c r="AMA3"/>
-      <c r="AMB3"/>
-      <c r="AMC3"/>
-      <c r="AMD3"/>
-      <c r="AME3"/>
-      <c r="AMF3"/>
-      <c r="AMG3"/>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2812</v>
-      </c>
-      <c r="C4" s="21">
-        <v>41.970149253731343</v>
-      </c>
-      <c r="ALZ4"/>
-      <c r="AMA4"/>
-      <c r="AMB4"/>
-      <c r="AMC4"/>
-      <c r="AMD4"/>
-      <c r="AME4"/>
-      <c r="AMF4"/>
-      <c r="AMG4"/>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1515</v>
-      </c>
-      <c r="C5" s="21">
-        <v>22.611940298507463</v>
-      </c>
-      <c r="ALZ5"/>
-      <c r="AMA5"/>
-      <c r="AMB5"/>
-      <c r="AMC5"/>
-      <c r="AMD5"/>
-      <c r="AME5"/>
-      <c r="AMF5"/>
-      <c r="AMG5"/>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1404</v>
-      </c>
-      <c r="C6" s="21">
-        <v>20.955223880597014</v>
-      </c>
-      <c r="ALZ6"/>
-      <c r="AMA6"/>
-      <c r="AMB6"/>
-      <c r="AMC6"/>
-      <c r="AMD6"/>
-      <c r="AME6"/>
-      <c r="AMF6"/>
-      <c r="AMG6"/>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="10">
-        <v>737</v>
-      </c>
-      <c r="C7" s="21">
-        <v>11</v>
-      </c>
-      <c r="ALZ7"/>
-      <c r="AMA7"/>
-      <c r="AMB7"/>
-      <c r="AMC7"/>
-      <c r="AMD7"/>
-      <c r="AME7"/>
-      <c r="AMF7"/>
-      <c r="AMG7"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="ALZ8"/>
-      <c r="AMA8"/>
-      <c r="AMB8"/>
-      <c r="AMC8"/>
-      <c r="AMD8"/>
-      <c r="AME8"/>
-      <c r="AMF8"/>
-      <c r="AMG8"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="ALZ9"/>
-      <c r="AMA9"/>
-      <c r="AMB9"/>
-      <c r="AMC9"/>
-      <c r="AMD9"/>
-      <c r="AME9"/>
-      <c r="AMF9"/>
-      <c r="AMG9"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="ALZ10"/>
-      <c r="AMA10"/>
-      <c r="AMB10"/>
-      <c r="AMC10"/>
-      <c r="AMD10"/>
-      <c r="AME10"/>
-      <c r="AMF10"/>
-      <c r="AMG10"/>
-      <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="ALZ11"/>
-      <c r="AMA11"/>
-      <c r="AMB11"/>
-      <c r="AMC11"/>
-      <c r="AMD11"/>
-      <c r="AME11"/>
-      <c r="AMF11"/>
-      <c r="AMG11"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="ALZ12"/>
-      <c r="AMA12"/>
-      <c r="AMB12"/>
-      <c r="AMC12"/>
-      <c r="AMD12"/>
-      <c r="AME12"/>
-      <c r="AMF12"/>
-      <c r="AMG12"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="ALZ15"/>
-      <c r="AMA15"/>
-      <c r="AMB15"/>
-      <c r="AMC15"/>
-      <c r="AMD15"/>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="ALZ16"/>
-      <c r="AMA16"/>
-      <c r="AMB16"/>
-      <c r="AMC16"/>
-      <c r="AMD16"/>
-      <c r="AME16"/>
-      <c r="AMF16"/>
-      <c r="AMG16"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="ALZ17"/>
-      <c r="AMA17"/>
-      <c r="AMB17"/>
-      <c r="AMC17"/>
-      <c r="AMD17"/>
-      <c r="AME17"/>
-      <c r="AMF17"/>
-      <c r="AMG17"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="ALZ18"/>
-      <c r="AMA18"/>
-      <c r="AMB18"/>
-      <c r="AMC18"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="ALZ19"/>
-      <c r="AMA19"/>
-      <c r="AMB19"/>
-      <c r="AMC19"/>
-      <c r="AMD19"/>
-      <c r="AME19"/>
-      <c r="AMF19"/>
-      <c r="AMG19"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="ALZ20"/>
-      <c r="AMA20"/>
-      <c r="AMB20"/>
-      <c r="AMC20"/>
-      <c r="AMD20"/>
-      <c r="AME20"/>
-      <c r="AMF20"/>
-      <c r="AMG20"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="ALZ21"/>
-      <c r="AMA21"/>
-      <c r="AMB21"/>
-      <c r="AMC21"/>
-      <c r="AMD21"/>
-      <c r="AME21"/>
-      <c r="AMF21"/>
-      <c r="AMG21"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="ALZ22"/>
-      <c r="AMA22"/>
-      <c r="AMB22"/>
-      <c r="AMC22"/>
-      <c r="AMD22"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="ALZ23"/>
-      <c r="AMA23"/>
-      <c r="AMB23"/>
-      <c r="AMC23"/>
-      <c r="AMD23"/>
-      <c r="AME23"/>
-      <c r="AMF23"/>
-      <c r="AMG23"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="ALZ24"/>
-      <c r="AMA24"/>
-      <c r="AMB24"/>
-      <c r="AMC24"/>
-      <c r="AMD24"/>
-      <c r="AME24"/>
-      <c r="AMF24"/>
-      <c r="AMG24"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="ALZ25"/>
-      <c r="AMA25"/>
-      <c r="AMB25"/>
-      <c r="AMC25"/>
-      <c r="AMD25"/>
-      <c r="AME25"/>
-      <c r="AMF25"/>
-      <c r="AMG25"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="ALZ26"/>
-      <c r="AMA26"/>
-      <c r="AMB26"/>
-      <c r="AMC26"/>
-      <c r="AMD26"/>
-      <c r="AME26"/>
-      <c r="AMF26"/>
-      <c r="AMG26"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="ALZ27"/>
-      <c r="AMA27"/>
-      <c r="AMB27"/>
-      <c r="AMC27"/>
-      <c r="AMD27"/>
-      <c r="AME27"/>
-      <c r="AMF27"/>
-      <c r="AMG27"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="ALZ28"/>
-      <c r="AMA28"/>
-      <c r="AMB28"/>
-      <c r="AMC28"/>
-      <c r="AMD28"/>
-      <c r="AME28"/>
-      <c r="AMF28"/>
-      <c r="AMG28"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="ALZ29"/>
-      <c r="AMA29"/>
-      <c r="AMB29"/>
-      <c r="AMC29"/>
-      <c r="AMD29"/>
-      <c r="AME29"/>
-      <c r="AMF29"/>
-      <c r="AMG29"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="ALZ30"/>
-      <c r="AMA30"/>
-      <c r="AMB30"/>
-      <c r="AMC30"/>
-      <c r="AMD30"/>
-      <c r="AME30"/>
-      <c r="AMF30"/>
-      <c r="AMG30"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="ALZ31"/>
-      <c r="AMA31"/>
-      <c r="AMB31"/>
-      <c r="AMC31"/>
-      <c r="AMD31"/>
-      <c r="AME31"/>
-      <c r="AMF31"/>
-      <c r="AMG31"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="ALZ32"/>
-      <c r="AMA32"/>
-      <c r="AMB32"/>
-      <c r="AMC32"/>
-      <c r="AMD32"/>
-      <c r="AME32"/>
-      <c r="AMF32"/>
-      <c r="AMG32"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="ALZ33"/>
-      <c r="AMA33"/>
-      <c r="AMB33"/>
-      <c r="AMC33"/>
-      <c r="AMD33"/>
-      <c r="AME33"/>
-      <c r="AMF33"/>
-      <c r="AMG33"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="ALZ34"/>
-      <c r="AMA34"/>
-      <c r="AMB34"/>
-      <c r="AMC34"/>
-      <c r="AMD34"/>
-      <c r="AME34"/>
-      <c r="AMF34"/>
-      <c r="AMG34"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="ALZ35"/>
-      <c r="AMA35"/>
-      <c r="AMB35"/>
-      <c r="AMC35"/>
-      <c r="AMD35"/>
-      <c r="AME35"/>
-      <c r="AMF35"/>
-      <c r="AMG35"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="ALZ36"/>
-      <c r="AMA36"/>
-      <c r="AMB36"/>
-      <c r="AMC36"/>
-      <c r="AMD36"/>
-      <c r="AME36"/>
-      <c r="AMF36"/>
-      <c r="AMG36"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="ALZ37"/>
-      <c r="AMA37"/>
-      <c r="AMB37"/>
-      <c r="AMC37"/>
-      <c r="AMD37"/>
-      <c r="AME37"/>
-      <c r="AMF37"/>
-      <c r="AMG37"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="ALZ38"/>
-      <c r="AMA38"/>
-      <c r="AMB38"/>
-      <c r="AMC38"/>
-      <c r="AMD38"/>
-      <c r="AME38"/>
-      <c r="AMF38"/>
-      <c r="AMG38"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="ALZ39"/>
-      <c r="AMA39"/>
-      <c r="AMB39"/>
-      <c r="AMC39"/>
-      <c r="AMD39"/>
-      <c r="AME39"/>
-      <c r="AMF39"/>
-      <c r="AMG39"/>
-      <c r="AMH39"/>
-      <c r="AMI39"/>
-      <c r="AMJ39"/>
-      <c r="AMK39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="1025" width="22.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:1025" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-    </row>
-    <row r="3" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="AMH3"/>
-      <c r="AMI3"/>
-      <c r="AMJ3"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14">
-        <v>3911</v>
-      </c>
-      <c r="C4" s="25">
-        <v>100</v>
-      </c>
-      <c r="AMH4"/>
-      <c r="AMI4"/>
-      <c r="AMJ4"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3583</v>
-      </c>
-      <c r="C5" s="21">
-        <v>91.613398107900792</v>
-      </c>
-      <c r="AMH5"/>
-      <c r="AMI5"/>
-      <c r="AMJ5"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="10">
-        <v>328</v>
-      </c>
-      <c r="C6" s="21">
-        <v>8.3866018920992076</v>
-      </c>
-      <c r="AMH6"/>
-      <c r="AMI6"/>
-      <c r="AMJ6"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="AMH7"/>
-      <c r="AMI7"/>
-      <c r="AMJ7"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="AMH8"/>
-      <c r="AMI8"/>
-      <c r="AMJ8"/>
-      <c r="AMK8"/>
-    </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="AMH9"/>
-      <c r="AMI9"/>
-      <c r="AMJ9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="AMH10"/>
-      <c r="AMI10"/>
-      <c r="AMJ10"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="AMH11"/>
-      <c r="AMI11"/>
-      <c r="AMJ11"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="AMH12"/>
-      <c r="AMI12"/>
-      <c r="AMJ12"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="AMH13"/>
-      <c r="AMI13"/>
-      <c r="AMJ13"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="AMH25"/>
-      <c r="AMI25"/>
-      <c r="AMJ25"/>
-      <c r="AMK25"/>
-    </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="AMH26"/>
-      <c r="AMI26"/>
-      <c r="AMJ26"/>
-      <c r="AMK26"/>
-    </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="AMH27"/>
-      <c r="AMI27"/>
-      <c r="AMJ27"/>
-      <c r="AMK27"/>
-    </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="AMH28"/>
-      <c r="AMI28"/>
-      <c r="AMJ28"/>
-      <c r="AMK28"/>
-    </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="AMH29"/>
-      <c r="AMI29"/>
-      <c r="AMJ29"/>
-      <c r="AMK29"/>
-    </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="AMH30"/>
-      <c r="AMI30"/>
-      <c r="AMJ30"/>
-      <c r="AMK30"/>
-    </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="AMH31"/>
-      <c r="AMI31"/>
-      <c r="AMJ31"/>
-      <c r="AMK31"/>
-    </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="AMH32"/>
-      <c r="AMI32"/>
-      <c r="AMJ32"/>
-      <c r="AMK32"/>
-    </row>
-    <row r="33" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="AMH33"/>
-      <c r="AMI33"/>
-      <c r="AMJ33"/>
-      <c r="AMK33"/>
-    </row>
-    <row r="34" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="AMH34"/>
-      <c r="AMI34"/>
-      <c r="AMJ34"/>
-      <c r="AMK34"/>
-    </row>
-    <row r="35" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="AMH35"/>
-      <c r="AMI35"/>
-      <c r="AMJ35"/>
-      <c r="AMK35"/>
-    </row>
-    <row r="36" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="AMH36"/>
-      <c r="AMI36"/>
-      <c r="AMJ36"/>
-      <c r="AMK36"/>
-    </row>
-    <row r="37" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="AMH37"/>
-      <c r="AMI37"/>
-      <c r="AMJ37"/>
-      <c r="AMK37"/>
-    </row>
-    <row r="38" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="AMH38"/>
-      <c r="AMI38"/>
-      <c r="AMJ38"/>
-      <c r="AMK38"/>
-    </row>
-    <row r="39" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="AMH39"/>
-      <c r="AMI39"/>
-      <c r="AMJ39"/>
-      <c r="AMK39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A8:C8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -37821,11 +35949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
@@ -37888,11 +36016,11 @@
       <c r="AMK5"/>
     </row>
     <row r="7" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
       <c r="AMH7"/>
       <c r="AMI7"/>
       <c r="AMJ7"/>
@@ -38132,12 +36260,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38148,16 +36276,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -38237,34 +36365,34 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -38295,11 +36423,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -38569,20 +36697,20 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -38609,16 +36737,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:992" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:992" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
     </row>
@@ -38873,22 +37001,22 @@
       <c r="ALD22"/>
     </row>
     <row r="23" spans="1:992" x14ac:dyDescent="0.2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="ALC23"/>
       <c r="ALD23"/>
     </row>
     <row r="24" spans="1:992" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="AKY24"/>
       <c r="AKZ24"/>
       <c r="ALA24"/>
@@ -39064,11 +37192,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
     </row>
@@ -39178,12 +37306,12 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
@@ -39192,12 +37320,12 @@
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
